--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Spring.011420-1.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gautier.Spring.011420-1.xlsx_with_dialog_acts.xlsx
@@ -1551,12 +1551,12 @@
       <c r="H29" t="inlineStr"/>
       <c r="I29" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J29" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -1973,12 +1973,12 @@
       <c r="H40" t="inlineStr"/>
       <c r="I40" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J40" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -2011,12 +2011,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2391,12 +2391,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2543,12 +2543,12 @@
       <c r="H55" t="inlineStr"/>
       <c r="I55" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J55" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2923,12 +2923,12 @@
       <c r="H65" t="inlineStr"/>
       <c r="I65" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J65" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3113,12 +3113,12 @@
       <c r="H70" t="inlineStr"/>
       <c r="I70" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J70" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3227,12 +3227,12 @@
       </c>
       <c r="I73" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J73" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3493,12 +3493,12 @@
       <c r="H80" t="inlineStr"/>
       <c r="I80" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J80" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -3721,12 +3721,12 @@
       <c r="H86" t="inlineStr"/>
       <c r="I86" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J86" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3873,12 +3873,12 @@
       <c r="H90" t="inlineStr"/>
       <c r="I90" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>qy</t>
         </is>
       </c>
       <c r="J90" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Yes-No-Question</t>
         </is>
       </c>
     </row>
@@ -4569,12 +4569,12 @@
       <c r="H108" t="inlineStr"/>
       <c r="I108" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J108" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -4915,12 +4915,12 @@
       <c r="H117" t="inlineStr"/>
       <c r="I117" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J117" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5447,12 +5447,12 @@
       <c r="H131" t="inlineStr"/>
       <c r="I131" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J131" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5979,12 +5979,12 @@
       <c r="H145" t="inlineStr"/>
       <c r="I145" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J145" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -6131,12 +6131,12 @@
       </c>
       <c r="I149" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J149" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6587,12 +6587,12 @@
       <c r="H161" t="inlineStr"/>
       <c r="I161" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J161" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -6815,12 +6815,12 @@
       <c r="H167" t="inlineStr"/>
       <c r="I167" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J167" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6933,12 +6933,12 @@
       <c r="H170" t="inlineStr"/>
       <c r="I170" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J170" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7009,12 +7009,12 @@
       <c r="H172" t="inlineStr"/>
       <c r="I172" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J172" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7351,12 +7351,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7693,12 +7693,12 @@
       <c r="H190" t="inlineStr"/>
       <c r="I190" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J190" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -7769,12 +7769,12 @@
       <c r="H192" t="inlineStr"/>
       <c r="I192" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J192" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7807,12 +7807,12 @@
       <c r="H193" t="inlineStr"/>
       <c r="I193" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J193" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7845,12 +7845,12 @@
       <c r="H194" t="inlineStr"/>
       <c r="I194" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J194" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -8495,12 +8495,12 @@
       </c>
       <c r="I211" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J211" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9295,12 +9295,12 @@
       <c r="H232" t="inlineStr"/>
       <c r="I232" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J232" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -9637,12 +9637,12 @@
       <c r="H241" t="inlineStr"/>
       <c r="I241" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J241" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9675,12 +9675,12 @@
       <c r="H242" t="inlineStr"/>
       <c r="I242" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J242" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -9941,12 +9941,12 @@
       <c r="H249" t="inlineStr"/>
       <c r="I249" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J249" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -10131,12 +10131,12 @@
       <c r="H254" t="inlineStr"/>
       <c r="I254" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J254" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -10169,12 +10169,12 @@
       <c r="H255" t="inlineStr"/>
       <c r="I255" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J255" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -10245,12 +10245,12 @@
       <c r="H257" t="inlineStr"/>
       <c r="I257" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J257" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -10397,12 +10397,12 @@
       <c r="H261" t="inlineStr"/>
       <c r="I261" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J261" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -11119,12 +11119,12 @@
       <c r="H280" t="inlineStr"/>
       <c r="I280" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J280" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -11195,12 +11195,12 @@
       <c r="H282" t="inlineStr"/>
       <c r="I282" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J282" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11233,12 +11233,12 @@
       <c r="H283" t="inlineStr"/>
       <c r="I283" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J283" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11347,12 +11347,12 @@
       <c r="H286" t="inlineStr"/>
       <c r="I286" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J286" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11689,12 +11689,12 @@
       <c r="H295" t="inlineStr"/>
       <c r="I295" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J295" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -12107,12 +12107,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12449,12 +12449,12 @@
       </c>
       <c r="I315" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J315" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -13019,12 +13019,12 @@
       <c r="H330" t="inlineStr"/>
       <c r="I330" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J330" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13171,12 +13171,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13209,12 +13209,12 @@
       <c r="H335" t="inlineStr"/>
       <c r="I335" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J335" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -13475,12 +13475,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14083,12 +14083,12 @@
       <c r="H358" t="inlineStr"/>
       <c r="I358" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J358" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14121,12 +14121,12 @@
       <c r="H359" t="inlineStr"/>
       <c r="I359" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J359" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -14425,12 +14425,12 @@
       <c r="H367" t="inlineStr"/>
       <c r="I367" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J367" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15071,12 +15071,12 @@
       <c r="H384" t="inlineStr"/>
       <c r="I384" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J384" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -15337,12 +15337,12 @@
       </c>
       <c r="I391" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J391" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -15945,12 +15945,12 @@
       </c>
       <c r="I407" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J407" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -15983,12 +15983,12 @@
       <c r="H408" t="inlineStr"/>
       <c r="I408" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J408" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -16553,12 +16553,12 @@
       <c r="H423" t="inlineStr"/>
       <c r="I423" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J423" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -16705,12 +16705,12 @@
       <c r="H427" t="inlineStr"/>
       <c r="I427" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J427" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -17085,12 +17085,12 @@
       <c r="H437" t="inlineStr"/>
       <c r="I437" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J437" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -17123,12 +17123,12 @@
       </c>
       <c r="I438" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J438" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17313,12 +17313,12 @@
       </c>
       <c r="I443" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17465,12 +17465,12 @@
       <c r="H447" t="inlineStr"/>
       <c r="I447" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J447" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17959,12 +17959,12 @@
       <c r="H460" t="inlineStr"/>
       <c r="I460" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J460" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18491,12 +18491,12 @@
       <c r="H474" t="inlineStr"/>
       <c r="I474" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J474" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18681,12 +18681,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19137,12 +19137,12 @@
       <c r="H491" t="inlineStr"/>
       <c r="I491" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J491" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19327,12 +19327,12 @@
       <c r="H496" t="inlineStr"/>
       <c r="I496" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J496" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -19783,12 +19783,12 @@
       <c r="H508" t="inlineStr"/>
       <c r="I508" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J508" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -19859,12 +19859,12 @@
       <c r="H510" t="inlineStr"/>
       <c r="I510" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J510" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -20087,12 +20087,12 @@
       <c r="H516" t="inlineStr"/>
       <c r="I516" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J516" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20505,12 +20505,12 @@
       <c r="H527" t="inlineStr"/>
       <c r="I527" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J527" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20771,12 +20771,12 @@
       <c r="H534" t="inlineStr"/>
       <c r="I534" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J534" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20961,12 +20961,12 @@
       <c r="H539" t="inlineStr"/>
       <c r="I539" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J539" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21189,12 +21189,12 @@
       <c r="H545" t="inlineStr"/>
       <c r="I545" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J545" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21607,12 +21607,12 @@
       <c r="H556" t="inlineStr"/>
       <c r="I556" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J556" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -21759,12 +21759,12 @@
       <c r="H560" t="inlineStr"/>
       <c r="I560" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J560" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22101,12 +22101,12 @@
       <c r="H569" t="inlineStr"/>
       <c r="I569" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22291,12 +22291,12 @@
       </c>
       <c r="I574" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J574" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22861,12 +22861,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22937,12 +22937,12 @@
       <c r="H591" t="inlineStr"/>
       <c r="I591" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J591" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -23127,12 +23127,12 @@
       </c>
       <c r="I596" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23393,12 +23393,12 @@
       <c r="H603" t="inlineStr"/>
       <c r="I603" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J603" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
